--- a/ooxx.xlsx
+++ b/ooxx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyuxiang/Desktop/TOC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyuxiang/Desktop/TOC/project/Chat_Robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FA0CB5-224B-A341-BE78-C8978C4DDB65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5747F5-2597-AE4A-A1EA-BD66577348C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="460" windowWidth="25200" windowHeight="16080" activeTab="3" xr2:uid="{70AFC525-7F52-FC42-98BD-6E477B5EE7AA}"/>
+    <workbookView xWindow="3320" yWindow="460" windowWidth="25200" windowHeight="16080" xr2:uid="{70AFC525-7F52-FC42-98BD-6E477B5EE7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1220,9 +1220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAA0581-2072-0449-BF1D-6D6EC0401991}">
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100:I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9469,8 +9469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF3835D-B3B8-1040-AC2F-5F53ED9A4242}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I60"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/ooxx.xlsx
+++ b/ooxx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyuxiang/Desktop/TOC/project/Chat_Robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5747F5-2597-AE4A-A1EA-BD66577348C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAAB5A8-6767-1447-ACCE-E1DAF83E3849}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="460" windowWidth="25200" windowHeight="16080" xr2:uid="{70AFC525-7F52-FC42-98BD-6E477B5EE7AA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="236">
   <si>
     <t>A1</t>
   </si>
@@ -772,6 +772,18 @@
   </si>
   <si>
     <t>(A1, B1)</t>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C2, A3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1222,7 +1234,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100:I100"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1230,15 +1242,15 @@
     <row r="1" spans="1:14">
       <c r="A1" s="7" t="str">
         <f ca="1">IF(ISTEXT(HLOOKUP("A1",INDIRECT(VLOOKUP("yes", (INDIRECT(N3):K5), 4, FALSE)):INDIRECT(H3), VLOOKUP("yes", K5:INDIRECT(N3), 2, FALSE), FALSE)), HLOOKUP("A1",INDIRECT(VLOOKUP("yes", K5:INDIRECT(N3), 4, FALSE)):INDIRECT(H3), VLOOKUP("yes", K5:INDIRECT(N3), 2, FALSE), FALSE),  " ")</f>
-        <v xml:space="preserve"> </v>
+        <v>x</v>
       </c>
       <c r="B1" s="8" t="str">
         <f ca="1">IF(ISTEXT(HLOOKUP("B1",INDIRECT(VLOOKUP("yes", (INDIRECT(N3):K5), 4, FALSE)):INDIRECT(H3), VLOOKUP("yes", K5:INDIRECT(N3), 2, FALSE), FALSE)), HLOOKUP("B1",INDIRECT(VLOOKUP("yes", K5:INDIRECT(N3), 4, FALSE)):INDIRECT(H3), VLOOKUP("yes", K5:INDIRECT(N3), 2, FALSE), FALSE),  " ")</f>
-        <v xml:space="preserve"> </v>
+        <v>x</v>
       </c>
       <c r="C1" s="7" t="str">
         <f ca="1">IF(ISTEXT(HLOOKUP("C1",INDIRECT(VLOOKUP("yes", (INDIRECT(N3):K5), 4, FALSE)):INDIRECT(H3), VLOOKUP("yes", K5:INDIRECT(N3), 2, FALSE), FALSE)), HLOOKUP("C1",INDIRECT(VLOOKUP("yes", K5:INDIRECT(N3), 4, FALSE)):INDIRECT(H3), VLOOKUP("yes", K5:INDIRECT(N3), 2, FALSE), FALSE),  " ")</f>
-        <v xml:space="preserve"> </v>
+        <v>x</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1248,7 +1260,7 @@
       </c>
       <c r="B2" s="8" t="str">
         <f ca="1">IF(ISTEXT(HLOOKUP("B2",INDIRECT(VLOOKUP("yes", (INDIRECT(N3):K5), 4, FALSE)):INDIRECT(H3), VLOOKUP("yes", K5:INDIRECT(N3), 2, FALSE), FALSE)), HLOOKUP("B2",INDIRECT(VLOOKUP("yes", K5:INDIRECT(N3), 4, FALSE)):INDIRECT(H3), VLOOKUP("yes", K5:INDIRECT(N3), 2, FALSE), FALSE),  " ")</f>
-        <v xml:space="preserve"> </v>
+        <v>o</v>
       </c>
       <c r="C2" s="7" t="str">
         <f ca="1">IF(ISTEXT(HLOOKUP("C2",INDIRECT(VLOOKUP("yes", (INDIRECT(N3):K5), 4, FALSE)):INDIRECT(H3), VLOOKUP("yes", K5:INDIRECT(N3), 2, FALSE), FALSE)), HLOOKUP("C2",INDIRECT(VLOOKUP("yes", K5:INDIRECT(N3), 4, FALSE)):INDIRECT(H3), VLOOKUP("yes", K5:INDIRECT(N3), 2, FALSE), FALSE),  " ")</f>
@@ -1266,7 +1278,7 @@
       </c>
       <c r="C3" s="1" t="str">
         <f ca="1">IF(ISTEXT(HLOOKUP("C3",INDIRECT(VLOOKUP("yes", (INDIRECT(N3):K5), 4, FALSE)):INDIRECT(H3), VLOOKUP("yes", K5:INDIRECT(N3), 2, FALSE), FALSE)), HLOOKUP("C3",INDIRECT(VLOOKUP("yes", K5:INDIRECT(N3), 4, FALSE)):INDIRECT(H3), VLOOKUP("yes", K5:INDIRECT(N3), 2, FALSE), FALSE),  " ")</f>
-        <v xml:space="preserve"> </v>
+        <v>o</v>
       </c>
       <c r="H3" t="s">
         <v>156</v>
@@ -5293,19 +5305,22 @@
         <v>12</v>
       </c>
       <c r="D99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G99" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="I99" s="5" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="K99" t="s">
         <v>8</v>
@@ -5332,22 +5347,22 @@
         <v>12</v>
       </c>
       <c r="D100" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F100" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="K100" t="s">
         <v>8</v>
@@ -5374,19 +5389,19 @@
         <v>12</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>125</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K101" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
       <c r="L101">
         <f ca="1">INDIRECT($M$3)-M101+1</f>
